--- a/boulder_data.xlsx
+++ b/boulder_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Project1_guads\data_publish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Project1_guads\data_from_last_chance_canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BDFA0-2520-4E22-B31A-8C8B7CAC2105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1272795B-0684-4DCD-860C-CA77E1FFCF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
   <si>
     <t>Geometry</t>
   </si>
@@ -445,15 +445,6 @@
   </si>
   <si>
     <t>C axis</t>
-  </si>
-  <si>
-    <t>stdev carb</t>
-  </si>
-  <si>
-    <t>stdev ss</t>
-  </si>
-  <si>
-    <t>average=</t>
   </si>
   <si>
     <t>shape factor (laurent)</t>
@@ -488,7 +479,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,18 +561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,32 +751,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1091,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
@@ -1116,28 +1087,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="58" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
       <c r="T1" s="23" t="s">
         <v>5</v>
       </c>
@@ -9998,163 +9969,149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EFFEB1-60FA-4007-A65D-5BE8AD4B90EE}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="50" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+      <c r="A2" s="43">
         <v>257</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="43">
         <v>208</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="44">
         <v>107</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="44">
         <f t="shared" ref="D2:D59" si="0">(A2/100*B2/100*C2/100)</f>
         <v>5.7197919999999991</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="43">
         <f>C2/(SQRT(A2*B2))</f>
         <v>0.46279168625506484</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="43">
         <f>C2/A2</f>
         <v>0.41634241245136189</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="50">
         <v>99.930795847750531</v>
       </c>
-      <c r="H2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2">
-        <f>STDEV(F2:F40)</f>
-        <v>0.1690748148595918</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
+      <c r="A3" s="43">
         <v>401</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="43">
         <v>208</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="44">
         <v>74</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="44">
         <f t="shared" si="0"/>
         <v>6.1721919999999999</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="43">
         <f>C3/(SQRT(A3*B3))</f>
         <v>0.25622875473962547</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="43">
         <f t="shared" ref="F3:F59" si="1">C3/A3</f>
         <v>0.18453865336658354</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="50">
         <v>99.911504424778343</v>
       </c>
-      <c r="H3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3">
-        <f>STDEV(F41:F59)</f>
-        <v>0.18343552575926614</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
+      <c r="A4" s="45">
         <v>156</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="43">
         <v>97</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="43">
         <v>38</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="44">
         <f t="shared" si="0"/>
         <v>0.57501599999999997</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="43">
         <f t="shared" ref="E4:E59" si="2">C4/(SQRT(A4*B4))</f>
         <v>0.30891246310225096</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="43">
         <f t="shared" si="1"/>
         <v>0.24358974358974358</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="50">
         <v>99.682323576128979</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="43">
+      <c r="A5" s="45">
         <v>51</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="43">
         <v>30</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="43">
         <v>28</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="44">
         <f t="shared" si="0"/>
         <v>4.2839999999999996E-2</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="43">
         <f t="shared" si="2"/>
         <v>0.71583398959087907</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="43">
         <f t="shared" si="1"/>
         <v>0.5490196078431373</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="50">
         <v>99.443430656934368</v>
       </c>
       <c r="K5" t="s">
@@ -10162,95 +10119,88 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43">
+      <c r="A6" s="45">
         <v>198</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="43">
         <v>140</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="43">
         <v>132</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
         <v>3.6590400000000001</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="43">
         <f t="shared" si="2"/>
         <v>0.79282496717209194</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="43">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="50">
         <v>99.308129478626171</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+      <c r="A7" s="45">
         <v>69</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="43">
         <v>46</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="43">
         <v>36</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>0.11426399999999999</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="43">
         <f t="shared" si="2"/>
         <v>0.63899732420430733</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="43">
         <f t="shared" si="1"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="50">
         <v>99.05394524959749</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
+      <c r="A8" s="45">
         <v>201</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="43">
         <v>99</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="43">
         <v>55</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
         <v>1.0944449999999999</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="43">
         <f t="shared" si="2"/>
         <v>0.38989445922085397</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="43">
         <f t="shared" si="1"/>
         <v>0.27363184079601988</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="50">
         <v>99.01661580196641</v>
-      </c>
-      <c r="H8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8">
-        <f>AVERAGE(F41:F59)</f>
-        <v>0.28853243540478052</v>
       </c>
       <c r="K8" t="s">
         <v>118</v>
@@ -10263,28 +10213,28 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="45">
         <v>51</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="43">
         <v>41</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="43">
         <v>10</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
         <v>2.0910000000000002E-2</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="43">
         <f t="shared" si="2"/>
         <v>0.21868700842034769</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="43">
         <f t="shared" si="1"/>
         <v>0.19607843137254902</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="50">
         <v>98.926130816791371</v>
       </c>
       <c r="K9" t="s">
@@ -10298,28 +10248,28 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="45">
         <v>284</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="43">
         <v>208</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="43">
         <v>79</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
         <v>4.6666880000000006</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="43">
         <f t="shared" si="2"/>
         <v>0.32503958422158763</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="43">
         <f t="shared" si="1"/>
         <v>0.27816901408450706</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="50">
         <v>98.853731343283712</v>
       </c>
       <c r="K10" t="s">
@@ -10333,28 +10283,28 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
+      <c r="A11" s="46">
         <v>386</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="47">
         <v>224</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="47">
         <v>135</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="48">
         <f t="shared" si="0"/>
         <v>11.672639999999999</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="43">
         <f t="shared" si="2"/>
         <v>0.4591093177611083</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="43">
         <f t="shared" si="1"/>
         <v>0.34974093264248707</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="51">
         <v>98.536585365853611</v>
       </c>
       <c r="K11" t="s">
@@ -10365,28 +10315,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+      <c r="A12" s="45">
         <v>117</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="43">
         <v>102</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="43">
         <v>23</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="44">
         <f t="shared" si="0"/>
         <v>0.27448199999999995</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="43">
         <f t="shared" si="2"/>
         <v>0.21054009727941772</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="43">
         <f t="shared" si="1"/>
         <v>0.19658119658119658</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="50">
         <v>98.530762167125644</v>
       </c>
       <c r="K12" t="s">
@@ -10397,28 +10347,28 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="45">
         <v>104</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="43">
         <v>53</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="43">
         <v>43</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
         <v>0.23701600000000003</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="43">
         <f t="shared" si="2"/>
         <v>0.57918039282339273</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="43">
         <f t="shared" si="1"/>
         <v>0.41346153846153844</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="50">
         <v>98.491907797940115</v>
       </c>
       <c r="K13" t="s">
@@ -10429,28 +10379,28 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="45">
         <v>188</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="43">
         <v>145</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="43">
         <v>58</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="44">
         <f t="shared" si="0"/>
         <v>1.5810799999999998</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="43">
         <f t="shared" si="2"/>
         <v>0.35128941817132625</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="43">
         <f t="shared" si="1"/>
         <v>0.30851063829787234</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="50">
         <v>98.454106280194083</v>
       </c>
       <c r="K14" t="s">
@@ -10461,28 +10411,28 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="45">
         <v>467</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="43">
         <v>368</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="43">
         <v>130</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="44">
         <f t="shared" si="0"/>
         <v>22.341280000000001</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="43">
         <f t="shared" si="2"/>
         <v>0.31358913176647552</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="43">
         <f t="shared" si="1"/>
         <v>0.27837259100642398</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="50">
         <v>97.982345523329357</v>
       </c>
       <c r="K15" t="s">
@@ -10493,28 +10443,28 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="46">
         <v>64</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="47">
         <v>58</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="47">
         <v>33</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="48">
         <f t="shared" si="0"/>
         <v>0.12249599999999999</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="43">
         <f t="shared" si="2"/>
         <v>0.54163903554635551</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="43">
         <f t="shared" si="1"/>
         <v>0.515625</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="51">
         <v>97.444391859914717</v>
       </c>
       <c r="K16" t="s">
@@ -10525,28 +10475,28 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="45">
         <v>58</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="43">
         <v>41</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="43">
         <v>3</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="44">
         <f t="shared" si="0"/>
         <v>7.1339999999999988E-3</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="43">
         <f t="shared" si="2"/>
         <v>6.1519858739629646E-2</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="43">
         <f t="shared" si="1"/>
         <v>5.1724137931034482E-2</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="50">
         <v>96.433289299868079</v>
       </c>
       <c r="K17" t="s">
@@ -10557,28 +10507,28 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43">
+      <c r="A18" s="45">
         <v>191</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="43">
         <v>170</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="43">
         <v>86</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="44">
         <f t="shared" si="0"/>
         <v>2.7924199999999995</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="43">
         <f t="shared" si="2"/>
         <v>0.47726249460737463</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="43">
         <f t="shared" si="1"/>
         <v>0.45026178010471202</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="50">
         <v>96.294307196562684</v>
       </c>
       <c r="K18" s="18" t="s">
@@ -10590,210 +10540,210 @@
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="45">
         <v>122</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="43">
         <v>81</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="43">
         <v>46</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="44">
         <f t="shared" si="0"/>
         <v>0.45457199999999998</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="43">
         <f t="shared" si="2"/>
         <v>0.46273825755065023</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="43">
         <f t="shared" si="1"/>
         <v>0.37704918032786883</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="50">
         <v>96.114195083266736</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="45">
         <v>89</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="43">
         <v>53</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="43">
         <v>8</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="44">
         <f t="shared" si="0"/>
         <v>3.7735999999999999E-2</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="43">
         <f t="shared" si="2"/>
         <v>0.11648152526567072</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="43">
         <f t="shared" si="1"/>
         <v>8.98876404494382E-2</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="50">
         <v>95.773254170200644</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+      <c r="A21" s="45">
         <v>74</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="43">
         <v>51</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="43">
         <v>20</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="44">
         <f t="shared" si="0"/>
         <v>7.5480000000000005E-2</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="43">
         <f t="shared" si="2"/>
         <v>0.32555850669650599</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="43">
         <f t="shared" si="1"/>
         <v>0.27027027027027029</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="50">
         <v>95.722574551342504</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
+      <c r="A22" s="45">
         <v>216</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="43">
         <v>208</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="43">
         <v>107</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="44">
         <f t="shared" si="0"/>
         <v>4.807296</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="43">
         <f t="shared" si="2"/>
         <v>0.50480684438946566</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="43">
         <f t="shared" si="1"/>
         <v>0.49537037037037035</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="50">
         <v>95.53140096618371</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
+      <c r="A23" s="45">
         <v>170</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="43">
         <v>91</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="43">
         <v>28</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="44">
         <f t="shared" si="0"/>
         <v>0.43315999999999993</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="43">
         <f t="shared" si="2"/>
         <v>0.22511937506948221</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="43">
         <f t="shared" si="1"/>
         <v>0.16470588235294117</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="50">
         <v>95.520104895104936</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="A24" s="45">
         <v>97</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="43">
         <v>74</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="43">
         <v>46</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="44">
         <f t="shared" si="0"/>
         <v>0.33018799999999998</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="43">
         <f t="shared" si="2"/>
         <v>0.54294533334012596</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="43">
         <f t="shared" si="1"/>
         <v>0.47422680412371132</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="50">
         <v>94.994519546949221</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="45">
         <v>69</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="43">
         <v>56</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="43">
         <v>23</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="44">
         <f t="shared" si="0"/>
         <v>8.8872000000000007E-2</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="43">
         <f t="shared" si="2"/>
         <v>0.37000643495047741</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="43">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="50">
         <v>94.775725593668085</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
+      <c r="A26" s="45">
         <v>79</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="43">
         <v>76</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="43">
         <v>18</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="44">
         <f t="shared" si="0"/>
         <v>0.10807200000000002</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="43">
         <f t="shared" si="2"/>
         <v>0.2323015798138503</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="43">
         <f t="shared" si="1"/>
         <v>0.22784810126582278</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="50">
         <v>93.373685887225278</v>
       </c>
       <c r="J26" t="s">
@@ -10801,28 +10751,28 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="45">
         <v>109</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="43">
         <v>84</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="43">
         <v>33</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="44">
         <f t="shared" si="0"/>
         <v>0.30214800000000003</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="43">
         <f t="shared" si="2"/>
         <v>0.34487447143633693</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="43">
         <f t="shared" si="1"/>
         <v>0.30275229357798167</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="50">
         <v>93.171965317918819</v>
       </c>
       <c r="I27" t="s">
@@ -10834,28 +10784,28 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+      <c r="A28" s="45">
         <v>152</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="43">
         <v>79</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="43">
         <v>13</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="44">
         <f t="shared" si="0"/>
         <v>0.15610400000000002</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="43">
         <f t="shared" si="2"/>
         <v>0.11863368282040999</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="43">
         <f t="shared" si="1"/>
         <v>8.5526315789473686E-2</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="50">
         <v>91.580041580041566</v>
       </c>
       <c r="I28" t="s">
@@ -10867,28 +10817,28 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
+      <c r="A29" s="45">
         <v>64</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="43">
         <v>48</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="43">
         <v>41</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="44">
         <f t="shared" si="0"/>
         <v>0.12595199999999998</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="43">
         <f t="shared" si="2"/>
         <v>0.73973003239920809</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="43">
         <f t="shared" si="1"/>
         <v>0.640625</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="50">
         <v>91.372817528243445</v>
       </c>
       <c r="I29" t="s">
@@ -10900,28 +10850,28 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="43">
+      <c r="A30" s="45">
         <v>137</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="43">
         <v>132</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="43">
         <v>28</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="44">
         <f t="shared" si="0"/>
         <v>0.50635200000000002</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="43">
         <f t="shared" si="2"/>
         <v>0.20821440976438782</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="43">
         <f t="shared" si="1"/>
         <v>0.20437956204379562</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="50">
         <v>90.455941412709421</v>
       </c>
       <c r="I30" t="s">
@@ -10933,161 +10883,161 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="43">
+      <c r="A31" s="45">
         <v>683</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="43">
         <v>533</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="43">
         <v>170</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="44">
         <f t="shared" si="0"/>
         <v>61.886630000000004</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="43">
         <f t="shared" si="2"/>
         <v>0.28175716252659194</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="43">
         <f t="shared" si="1"/>
         <v>0.24890190336749635</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="50">
         <v>86.088379705399774</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="43">
+      <c r="A32" s="45">
         <v>55</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="43">
         <v>43</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="43">
         <v>30</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="44">
         <f t="shared" si="0"/>
         <v>7.0950000000000013E-2</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="43">
         <f t="shared" si="2"/>
         <v>0.61688709086449878</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="43">
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="50">
         <v>84.080615942028956</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="45">
         <v>53</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="43">
         <v>41</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="43">
         <v>23</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="44">
         <f t="shared" si="0"/>
         <v>4.9978999999999996E-2</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="43">
         <f t="shared" si="2"/>
         <v>0.49339866816116573</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="43">
         <f t="shared" si="1"/>
         <v>0.43396226415094341</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="50">
         <v>82.175732217573156</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="45">
         <v>229</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="43">
         <v>195</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="43">
         <v>130</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="44">
         <f t="shared" si="0"/>
         <v>5.8051500000000011</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="43">
         <f t="shared" si="2"/>
         <v>0.61518863747615427</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="43">
         <f t="shared" si="1"/>
         <v>0.56768558951965065</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="50">
         <v>78.839590443685921</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="44">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="46">
         <v>282</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="47">
         <v>196</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="47">
         <v>185</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="48">
         <f t="shared" si="0"/>
         <v>10.225319999999998</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="43">
         <f t="shared" si="2"/>
         <v>0.7868992630175109</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="43">
         <f t="shared" si="1"/>
         <v>0.65602836879432624</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="51">
         <v>77.587681779298507</v>
       </c>
       <c r="J35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="45">
         <v>51</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="43">
         <v>46</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="43">
         <v>10</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="44">
         <f t="shared" si="0"/>
         <v>2.3460000000000002E-2</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="43">
         <f t="shared" si="2"/>
         <v>0.20646003475383348</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="43">
         <f t="shared" si="1"/>
         <v>0.19607843137254902</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="50">
         <v>68.903628560281078</v>
       </c>
       <c r="I36" t="s">
@@ -11098,29 +11048,29 @@
         <v>0.34881487312505971</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="43">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="45">
         <v>99</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="43">
         <v>48</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="43">
         <v>30</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="44">
         <f t="shared" si="0"/>
         <v>0.14255999999999999</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="43">
         <f t="shared" si="2"/>
         <v>0.4351941398892446</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="43">
         <f t="shared" si="1"/>
         <v>0.30303030303030304</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="50">
         <v>65.598153609437176</v>
       </c>
       <c r="I37" t="s">
@@ -11131,29 +11081,29 @@
         <v>0.10300756481062767</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="43">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="45">
         <v>76</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="43">
         <v>46</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="43">
         <v>28</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="44">
         <f t="shared" si="0"/>
         <v>9.7888000000000003E-2</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="43">
         <f t="shared" si="2"/>
         <v>0.47355706404421688</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="43">
         <f t="shared" si="1"/>
         <v>0.36842105263157893</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="50">
         <v>65.117759388924085</v>
       </c>
       <c r="I38" t="s">
@@ -11164,29 +11114,29 @@
         <v>0.87380974706728343</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="45">
         <v>117</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="43">
         <v>64</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="43">
         <v>36</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="44">
         <f t="shared" si="0"/>
         <v>0.26956799999999997</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="43">
         <f t="shared" si="2"/>
         <v>0.41602514716892181</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="43">
         <f t="shared" si="1"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="50">
         <v>58.991825613079364</v>
       </c>
       <c r="I39" t="s">
@@ -11197,609 +11147,523 @@
         <v>0.19089185308553921</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="43">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="45">
         <v>191</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="43">
         <v>173</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="43">
         <v>132</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="44">
         <f t="shared" si="0"/>
         <v>4.3616760000000001</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="43">
         <f t="shared" si="2"/>
         <v>0.72616313271758826</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="43">
         <f t="shared" si="1"/>
         <v>0.69109947643979053</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="50">
         <v>52.083912197832717</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="48">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="45">
         <v>234</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="43">
         <v>221</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="43">
         <v>84</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="44">
         <f t="shared" si="0"/>
         <v>4.3439760000000005</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="43">
         <f t="shared" si="2"/>
         <v>0.36938156799924982</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="43">
         <f t="shared" si="1"/>
         <v>0.35897435897435898</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="50">
         <v>49.432346919784173</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="48">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="45">
         <v>274</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="43">
         <v>155</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="43">
         <v>81</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="44">
         <f t="shared" si="0"/>
         <v>3.4400700000000004</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="43">
         <f t="shared" si="2"/>
         <v>0.39304645932766835</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="43">
         <f t="shared" si="1"/>
         <v>0.29562043795620441</v>
       </c>
-      <c r="G42" s="51">
+      <c r="G42" s="50">
         <v>48.464808691544683</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="48">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="45">
         <v>429</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="43">
         <v>428</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="43">
         <v>168</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="44">
         <f t="shared" si="0"/>
         <v>30.846816</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="43">
         <f t="shared" si="2"/>
         <v>0.39206561113552102</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="43">
         <f t="shared" si="1"/>
         <v>0.39160839160839161</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="50">
         <v>31.079177233023568</v>
       </c>
-      <c r="M43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="48">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="45">
         <v>117</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="43">
         <v>33</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="43">
         <v>20</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="44">
         <f t="shared" si="0"/>
         <v>7.7219999999999997E-2</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="43">
         <f t="shared" si="2"/>
         <v>0.3218696997235117</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="43">
         <f t="shared" si="1"/>
         <v>0.17094017094017094</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="50">
         <v>27.796287482150838</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="48">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="45">
         <v>99</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="43">
         <v>69</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="43">
         <v>36</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="44">
         <f t="shared" si="0"/>
         <v>0.245916</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="43">
         <f t="shared" si="2"/>
         <v>0.43557240518437662</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="43">
         <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="50">
         <v>24.727272727272066</v>
       </c>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="O45" s="56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="48">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="45">
         <v>328</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="43">
         <v>152</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="43">
         <v>23</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="44">
         <f t="shared" si="0"/>
         <v>1.1466879999999999</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="43">
         <f t="shared" si="2"/>
         <v>0.10300756481062767</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="43">
         <f t="shared" si="1"/>
         <v>7.0121951219512202E-2</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="50">
         <v>23.166623477584668</v>
       </c>
-      <c r="M46" t="s">
-        <v>118</v>
-      </c>
-      <c r="N46">
-        <v>0.41913540455739451</v>
-      </c>
-      <c r="O46">
-        <v>0.34881487312505971</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="52">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="46">
         <v>213</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="47">
         <v>145</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="47">
         <v>53</v>
       </c>
-      <c r="D47" s="54">
+      <c r="D47" s="48">
         <f t="shared" si="0"/>
         <v>1.6369049999999998</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="43">
         <f t="shared" si="2"/>
         <v>0.30157967354935955</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="43">
         <f t="shared" si="1"/>
         <v>0.24882629107981222</v>
       </c>
-      <c r="G47" s="55">
+      <c r="G47" s="51">
         <v>23.068432671082238</v>
       </c>
-      <c r="M47" t="s">
-        <v>119</v>
-      </c>
-      <c r="N47">
-        <v>3.7424140644542664E-2</v>
-      </c>
-      <c r="O47">
-        <v>3.6439699574431085E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="48">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="45">
         <v>264</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="43">
         <v>165</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="43">
         <v>43</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="44">
         <f t="shared" si="0"/>
         <v>1.8730799999999999</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="43">
         <f t="shared" si="2"/>
         <v>0.20602718088975805</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="43">
         <f t="shared" si="1"/>
         <v>0.16287878787878787</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="50">
         <v>22.589052997393711</v>
       </c>
-      <c r="M48" t="s">
-        <v>120</v>
-      </c>
-      <c r="N48">
-        <v>39</v>
-      </c>
-      <c r="O48">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="48">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="45">
         <v>231</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="43">
         <v>76</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="43">
         <v>38</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="44">
         <f t="shared" si="0"/>
         <v>0.66712800000000005</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="43">
         <f t="shared" si="2"/>
         <v>0.28679449480609326</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F49" s="43">
         <f t="shared" si="1"/>
         <v>0.16450216450216451</v>
       </c>
-      <c r="G49" s="51">
+      <c r="G49" s="50">
         <v>21.915215745647021</v>
       </c>
-      <c r="M49" t="s">
-        <v>129</v>
-      </c>
-      <c r="N49">
-        <v>3.7107713157721087E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="48">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="45">
         <v>439</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="43">
         <v>226</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="43">
         <v>104</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="44">
         <f t="shared" si="0"/>
         <v>10.318255999999998</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="43">
         <f t="shared" si="2"/>
         <v>0.33017703223995404</v>
       </c>
-      <c r="F50" s="40">
+      <c r="F50" s="43">
         <f t="shared" si="1"/>
         <v>0.23690205011389523</v>
       </c>
-      <c r="G50" s="51">
+      <c r="G50" s="50">
         <v>19.55951756685922</v>
       </c>
-      <c r="M50" t="s">
-        <v>121</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="48">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="45">
         <v>125</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="43">
         <v>61</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C51" s="43">
         <v>28</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="44">
         <f t="shared" si="0"/>
         <v>0.21349999999999997</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="43">
         <f t="shared" si="2"/>
         <v>0.3206550672157662</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="43">
         <f t="shared" si="1"/>
         <v>0.224</v>
       </c>
-      <c r="G51" s="51">
+      <c r="G51" s="50">
         <v>17.989666510098445</v>
       </c>
-      <c r="M51" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="45">
+        <v>150</v>
+      </c>
+      <c r="B52" s="43">
         <v>122</v>
       </c>
-      <c r="N51">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="48">
-        <v>150</v>
-      </c>
-      <c r="B52" s="49">
-        <v>122</v>
-      </c>
-      <c r="C52" s="49">
+      <c r="C52" s="43">
         <v>102</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="44">
         <f t="shared" si="0"/>
         <v>1.8666</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="43">
         <f t="shared" si="2"/>
         <v>0.75400569637366432</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="43">
         <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="G52" s="51">
+      <c r="G52" s="50">
         <v>17.839630804730412</v>
       </c>
-      <c r="M52" t="s">
-        <v>123</v>
-      </c>
-      <c r="N52">
-        <v>1.3048036290909877</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="48">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="45">
         <v>56</v>
       </c>
-      <c r="B53" s="49">
+      <c r="B53" s="43">
         <v>41</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53" s="43">
         <v>20</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="44">
         <f t="shared" si="0"/>
         <v>4.5919999999999996E-2</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="43">
         <f t="shared" si="2"/>
         <v>0.41739193556484111</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="43">
         <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="G53" s="51">
+      <c r="G53" s="50">
         <v>17.382617382617958</v>
       </c>
-      <c r="M53" t="s">
-        <v>124</v>
-      </c>
-      <c r="N53">
-        <v>9.8648167570484085E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="48">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="45">
         <v>419</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="43">
         <v>119</v>
       </c>
-      <c r="C54" s="49">
+      <c r="C54" s="43">
         <v>43</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D54" s="44">
         <f t="shared" si="0"/>
         <v>2.1440230000000002</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="43">
         <f t="shared" si="2"/>
         <v>0.19256970424487968</v>
       </c>
-      <c r="F54" s="40">
+      <c r="F54" s="43">
         <f t="shared" si="1"/>
         <v>0.1026252983293556</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G54" s="50">
         <v>15.251011182488817</v>
       </c>
-      <c r="M54" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="45">
+        <v>137</v>
+      </c>
+      <c r="B55" s="43">
         <v>125</v>
       </c>
-      <c r="N54">
-        <v>1.6725223030755785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="48">
-        <v>137</v>
-      </c>
-      <c r="B55" s="49">
-        <v>125</v>
-      </c>
-      <c r="C55" s="49">
+      <c r="C55" s="43">
         <v>18</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="44">
         <f t="shared" si="0"/>
         <v>0.30824999999999997</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="43">
         <f t="shared" si="2"/>
         <v>0.13754892958215661</v>
       </c>
-      <c r="F55" s="40">
+      <c r="F55" s="43">
         <f t="shared" si="1"/>
         <v>0.13138686131386862</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="50">
         <v>14.638447971781199</v>
       </c>
-      <c r="M55" t="s">
-        <v>126</v>
-      </c>
-      <c r="N55">
-        <v>0.19729633514096817</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="48">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="45">
         <v>279</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="43">
         <v>259</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="43">
         <v>74</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="44">
         <f t="shared" si="0"/>
         <v>5.3473139999999999</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="43">
         <f t="shared" si="2"/>
         <v>0.27528321774928155</v>
       </c>
-      <c r="F56" s="40">
+      <c r="F56" s="43">
         <f t="shared" si="1"/>
         <v>0.26523297491039427</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="50">
         <v>13.662486938349083</v>
       </c>
-      <c r="M56" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="N56" s="18">
-        <v>2.0032407188478727</v>
-      </c>
-      <c r="O56" s="18"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="48">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="45">
         <v>114</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="43">
         <v>91</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="43">
         <v>89</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="44">
         <f t="shared" si="0"/>
         <v>0.92328599999999994</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="43">
         <f t="shared" si="2"/>
         <v>0.87380974706728343</v>
       </c>
-      <c r="F57" s="40">
+      <c r="F57" s="43">
         <f t="shared" si="1"/>
         <v>0.7807017543859649</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="50">
         <v>4.1696113074202952</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="48">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="45">
         <v>168</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="43">
         <v>137</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="43">
         <v>24</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="44">
         <f t="shared" si="0"/>
         <v>0.55238399999999999</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="43">
         <f t="shared" si="2"/>
         <v>0.15819629838175497</v>
       </c>
-      <c r="F58" s="40">
+      <c r="F58" s="43">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="50">
         <v>3.464467005076266</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="48">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="45">
         <v>404</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="43">
         <v>351</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="43">
         <v>135</v>
       </c>
-      <c r="D59" s="50">
+      <c r="D59" s="44">
         <f t="shared" si="0"/>
         <v>19.143539999999998</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="43">
         <f t="shared" si="2"/>
         <v>0.35850030353038548</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="43">
         <f t="shared" si="1"/>
         <v>0.33415841584158418</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="50">
         <v>0.67915690866502398</v>
       </c>
     </row>
@@ -11813,16 +11677,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A67FBA8-B4F6-4911-AAA0-91ECF021D3C3}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="41.21875" bestFit="1" customWidth="1"/>
@@ -11830,120 +11694,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+      <c r="A2" s="43">
         <v>257</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="43">
         <v>208</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="44">
         <v>107</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="44">
         <f t="shared" ref="D2:D59" si="0">(A2/100*B2/100*C2/100)</f>
         <v>5.7197919999999991</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
+      <c r="A3" s="43">
         <v>401</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="43">
         <v>208</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="44">
         <v>74</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="44">
         <f t="shared" si="0"/>
         <v>6.1721919999999999</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
+      <c r="A4" s="45">
         <v>156</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="43">
         <v>97</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="43">
         <v>38</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="44">
         <f t="shared" si="0"/>
         <v>0.57501599999999997</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="43">
+      <c r="A5" s="45">
         <v>51</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="43">
         <v>30</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="43">
         <v>28</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="44">
         <f t="shared" si="0"/>
         <v>4.2839999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
+      <c r="A6" s="45">
         <v>198</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="43">
         <v>140</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="43">
         <v>132</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
         <v>3.6590400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+      <c r="A7" s="45">
         <v>69</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="43">
         <v>46</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="43">
         <v>36</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>0.11426399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
+      <c r="A8" s="45">
         <v>201</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="43">
         <v>99</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="43">
         <v>55</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
         <v>1.0944449999999999</v>
       </c>
@@ -11961,91 +11825,82 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="45">
         <v>51</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="43">
         <v>41</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="43">
         <v>10</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
         <v>2.0910000000000002E-2</v>
       </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="45">
         <v>284</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="43">
         <v>208</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="43">
         <v>79</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
         <v>4.6666880000000006</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
       </c>
       <c r="K10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44">
+      <c r="A11" s="46">
         <v>386</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="47">
         <v>224</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="47">
         <v>135</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="48">
         <f t="shared" si="0"/>
         <v>11.672639999999999</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56" t="s">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <v>117</v>
+      </c>
+      <c r="B12" s="43">
+        <v>102</v>
+      </c>
+      <c r="C12" s="43">
+        <v>23</v>
+      </c>
+      <c r="D12" s="44">
+        <f t="shared" si="0"/>
+        <v>0.27448199999999995</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I12" s="36" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
-        <v>117</v>
-      </c>
-      <c r="B12" s="40">
-        <v>102</v>
-      </c>
-      <c r="C12" s="40">
-        <v>23</v>
-      </c>
-      <c r="D12" s="41">
-        <f t="shared" si="0"/>
-        <v>0.27448199999999995</v>
-      </c>
-      <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12">
-        <v>3.8834063589743599</v>
-      </c>
-      <c r="I12">
-        <v>4.4810985263157894</v>
-      </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56" t="s">
+      <c r="K12" s="36"/>
+      <c r="L12" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="36" t="s">
         <v>117</v>
       </c>
       <c r="O12" t="s">
@@ -12056,27 +11911,27 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43">
+      <c r="A13" s="45">
         <v>104</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="43">
         <v>53</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="43">
         <v>43</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
         <v>0.23701600000000003</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13">
-        <v>109.9097749254354</v>
+        <v>3.8834063589743599</v>
       </c>
       <c r="I13">
-        <v>62.202029426995168</v>
+        <v>4.4810985263157894</v>
       </c>
       <c r="K13" t="s">
         <v>118</v>
@@ -12089,27 +11944,27 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="45">
         <v>188</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="43">
         <v>145</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="43">
         <v>58</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="44">
         <f t="shared" si="0"/>
         <v>1.5810799999999998</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>109.9097749254354</v>
       </c>
       <c r="I14">
-        <v>19</v>
+        <v>62.202029426995168</v>
       </c>
       <c r="K14" t="s">
         <v>119</v>
@@ -12120,40 +11975,43 @@
       <c r="M14">
         <v>14868.064327485381</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56" t="s">
+      <c r="O14" s="36"/>
+      <c r="P14" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="Q14" s="56" t="s">
+      <c r="Q14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56" t="s">
+      <c r="S14" s="36"/>
+      <c r="T14" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="U14" s="56" t="s">
+      <c r="U14" s="36" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="45">
         <v>467</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="43">
         <v>368</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="43">
         <v>130</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="44">
         <f t="shared" si="0"/>
         <v>22.341280000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H15">
-        <v>94.575142443793894</v>
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>19</v>
       </c>
       <c r="K15" t="s">
         <v>120</v>
@@ -12184,16 +12042,16 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="46">
         <v>64</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="47">
         <v>58</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="47">
         <v>33</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="48">
         <f t="shared" si="0"/>
         <v>0.12249599999999999</v>
       </c>
@@ -12229,16 +12087,16 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="45">
         <v>58</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="43">
         <v>41</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="43">
         <v>3</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="44">
         <f t="shared" si="0"/>
         <v>7.1339999999999988E-3</v>
       </c>
@@ -12246,7 +12104,7 @@
         <v>122</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
         <v>122</v>
@@ -12274,16 +12132,16 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
+      <c r="A18" s="45">
         <v>191</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="43">
         <v>170</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="43">
         <v>86</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="44">
         <f t="shared" si="0"/>
         <v>2.7924199999999995</v>
       </c>
@@ -12291,7 +12149,7 @@
         <v>123</v>
       </c>
       <c r="H18">
-        <v>-0.21967678788489658</v>
+        <v>-0.24215751991839837</v>
       </c>
       <c r="K18" t="s">
         <v>123</v>
@@ -12313,16 +12171,16 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="45">
         <v>122</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="43">
         <v>81</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="43">
         <v>46</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="44">
         <f t="shared" si="0"/>
         <v>0.45457199999999998</v>
       </c>
@@ -12330,7 +12188,7 @@
         <v>124</v>
       </c>
       <c r="H19">
-        <v>0.41346084296518959</v>
+        <v>0.40486725072084584</v>
       </c>
       <c r="K19" t="s">
         <v>124</v>
@@ -12352,16 +12210,16 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="45">
         <v>89</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="43">
         <v>53</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="43">
         <v>8</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="44">
         <f t="shared" si="0"/>
         <v>3.7735999999999999E-2</v>
       </c>
@@ -12369,7 +12227,7 @@
         <v>125</v>
       </c>
       <c r="H20">
-        <v>1.6725223030755785</v>
+        <v>1.678660413556865</v>
       </c>
       <c r="K20" t="s">
         <v>125</v>
@@ -12391,16 +12249,16 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+      <c r="A21" s="45">
         <v>74</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="43">
         <v>51</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="43">
         <v>20</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="44">
         <f t="shared" si="0"/>
         <v>7.5480000000000005E-2</v>
       </c>
@@ -12408,7 +12266,7 @@
         <v>126</v>
       </c>
       <c r="H21">
-        <v>0.82692168593037918</v>
+        <v>0.80973450144169168</v>
       </c>
       <c r="K21" t="s">
         <v>126</v>
@@ -12430,16 +12288,16 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43">
+      <c r="A22" s="45">
         <v>216</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="43">
         <v>208</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="43">
         <v>107</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="44">
         <f t="shared" si="0"/>
         <v>4.807296</v>
       </c>
@@ -12447,7 +12305,7 @@
         <v>127</v>
       </c>
       <c r="H22" s="18">
-        <v>2.0032407188478727</v>
+        <v>2.0128955989194299</v>
       </c>
       <c r="I22" s="18"/>
       <c r="K22" s="18" t="s">
@@ -12471,16 +12329,16 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
+      <c r="A23" s="45">
         <v>170</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="43">
         <v>91</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="43">
         <v>28</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="44">
         <f t="shared" si="0"/>
         <v>0.43315999999999993</v>
       </c>
@@ -12498,16 +12356,16 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="43">
+      <c r="A24" s="45">
         <v>97</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="43">
         <v>74</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="43">
         <v>46</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="44">
         <f t="shared" si="0"/>
         <v>0.33018799999999998</v>
       </c>
@@ -12527,606 +12385,526 @@
       <c r="U24" s="18"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="45">
         <v>69</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="43">
         <v>56</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="43">
         <v>23</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="44">
         <f t="shared" si="0"/>
         <v>8.8872000000000007E-2</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
+      <c r="A26" s="45">
         <v>79</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="43">
         <v>76</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="43">
         <v>18</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="44">
         <f t="shared" si="0"/>
         <v>0.10807200000000002</v>
       </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>109</v>
+      </c>
+      <c r="B27" s="43">
+        <v>84</v>
+      </c>
+      <c r="C27" s="43">
+        <v>33</v>
+      </c>
+      <c r="D27" s="44">
+        <f t="shared" si="0"/>
+        <v>0.30214800000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="45">
+        <v>152</v>
+      </c>
+      <c r="B28" s="43">
+        <v>79</v>
+      </c>
+      <c r="C28" s="43">
+        <v>13</v>
+      </c>
+      <c r="D28" s="44">
+        <f t="shared" si="0"/>
+        <v>0.15610400000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
+        <v>64</v>
+      </c>
+      <c r="B29" s="43">
+        <v>48</v>
+      </c>
+      <c r="C29" s="43">
+        <v>41</v>
+      </c>
+      <c r="D29" s="44">
+        <f t="shared" si="0"/>
+        <v>0.12595199999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="45">
+        <v>137</v>
+      </c>
+      <c r="B30" s="43">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="43">
-        <v>109</v>
-      </c>
-      <c r="B27" s="40">
+      <c r="C30" s="43">
+        <v>28</v>
+      </c>
+      <c r="D30" s="44">
+        <f t="shared" si="0"/>
+        <v>0.50635200000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="45">
+        <v>683</v>
+      </c>
+      <c r="B31" s="43">
+        <v>533</v>
+      </c>
+      <c r="C31" s="43">
+        <v>170</v>
+      </c>
+      <c r="D31" s="44">
+        <f t="shared" si="0"/>
+        <v>61.886630000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
+        <v>55</v>
+      </c>
+      <c r="B32" s="43">
+        <v>43</v>
+      </c>
+      <c r="C32" s="43">
+        <v>30</v>
+      </c>
+      <c r="D32" s="44">
+        <f t="shared" si="0"/>
+        <v>7.0950000000000013E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="45">
+        <v>53</v>
+      </c>
+      <c r="B33" s="43">
+        <v>41</v>
+      </c>
+      <c r="C33" s="43">
+        <v>23</v>
+      </c>
+      <c r="D33" s="44">
+        <f t="shared" si="0"/>
+        <v>4.9978999999999996E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="45">
+        <v>229</v>
+      </c>
+      <c r="B34" s="43">
+        <v>195</v>
+      </c>
+      <c r="C34" s="43">
+        <v>130</v>
+      </c>
+      <c r="D34" s="44">
+        <f t="shared" si="0"/>
+        <v>5.8051500000000011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="46">
+        <v>282</v>
+      </c>
+      <c r="B35" s="47">
+        <v>196</v>
+      </c>
+      <c r="C35" s="47">
+        <v>185</v>
+      </c>
+      <c r="D35" s="48">
+        <f t="shared" si="0"/>
+        <v>10.225319999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="45">
+        <v>51</v>
+      </c>
+      <c r="B36" s="43">
+        <v>46</v>
+      </c>
+      <c r="C36" s="43">
+        <v>10</v>
+      </c>
+      <c r="D36" s="44">
+        <f t="shared" si="0"/>
+        <v>2.3460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="45">
+        <v>99</v>
+      </c>
+      <c r="B37" s="43">
+        <v>48</v>
+      </c>
+      <c r="C37" s="43">
+        <v>30</v>
+      </c>
+      <c r="D37" s="44">
+        <f t="shared" si="0"/>
+        <v>0.14255999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="45">
+        <v>76</v>
+      </c>
+      <c r="B38" s="43">
+        <v>46</v>
+      </c>
+      <c r="C38" s="43">
+        <v>28</v>
+      </c>
+      <c r="D38" s="44">
+        <f t="shared" si="0"/>
+        <v>9.7888000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="45">
+        <v>117</v>
+      </c>
+      <c r="B39" s="43">
+        <v>64</v>
+      </c>
+      <c r="C39" s="43">
+        <v>36</v>
+      </c>
+      <c r="D39" s="44">
+        <f t="shared" si="0"/>
+        <v>0.26956799999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="45">
+        <v>191</v>
+      </c>
+      <c r="B40" s="43">
+        <v>173</v>
+      </c>
+      <c r="C40" s="43">
+        <v>132</v>
+      </c>
+      <c r="D40" s="44">
+        <f t="shared" si="0"/>
+        <v>4.3616760000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="45">
+        <v>234</v>
+      </c>
+      <c r="B41" s="43">
+        <v>221</v>
+      </c>
+      <c r="C41" s="43">
         <v>84</v>
       </c>
-      <c r="C27" s="40">
+      <c r="D41" s="44">
+        <f t="shared" si="0"/>
+        <v>4.3439760000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="45">
+        <v>274</v>
+      </c>
+      <c r="B42" s="43">
+        <v>155</v>
+      </c>
+      <c r="C42" s="43">
+        <v>81</v>
+      </c>
+      <c r="D42" s="44">
+        <f t="shared" si="0"/>
+        <v>3.4400700000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="45">
+        <v>429</v>
+      </c>
+      <c r="B43" s="43">
+        <v>428</v>
+      </c>
+      <c r="C43" s="43">
+        <v>168</v>
+      </c>
+      <c r="D43" s="44">
+        <f t="shared" si="0"/>
+        <v>30.846816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="45">
+        <v>117</v>
+      </c>
+      <c r="B44" s="43">
         <v>33</v>
       </c>
-      <c r="D27" s="41">
-        <f t="shared" si="0"/>
-        <v>0.30214800000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+      <c r="C44" s="43">
+        <v>20</v>
+      </c>
+      <c r="D44" s="44">
+        <f t="shared" si="0"/>
+        <v>7.7219999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="45">
+        <v>99</v>
+      </c>
+      <c r="B45" s="43">
+        <v>69</v>
+      </c>
+      <c r="C45" s="43">
+        <v>36</v>
+      </c>
+      <c r="D45" s="44">
+        <f t="shared" si="0"/>
+        <v>0.245916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="45">
+        <v>328</v>
+      </c>
+      <c r="B46" s="43">
         <v>152</v>
       </c>
-      <c r="B28" s="40">
-        <v>79</v>
-      </c>
-      <c r="C28" s="40">
-        <v>13</v>
-      </c>
-      <c r="D28" s="41">
-        <f t="shared" si="0"/>
-        <v>0.15610400000000002</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
-        <v>64</v>
-      </c>
-      <c r="B29" s="40">
-        <v>48</v>
-      </c>
-      <c r="C29" s="40">
+      <c r="C46" s="43">
+        <v>23</v>
+      </c>
+      <c r="D46" s="44">
+        <f t="shared" si="0"/>
+        <v>1.1466879999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="46">
+        <v>213</v>
+      </c>
+      <c r="B47" s="47">
+        <v>145</v>
+      </c>
+      <c r="C47" s="47">
+        <v>53</v>
+      </c>
+      <c r="D47" s="48">
+        <f t="shared" si="0"/>
+        <v>1.6369049999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="45">
+        <v>264</v>
+      </c>
+      <c r="B48" s="43">
+        <v>165</v>
+      </c>
+      <c r="C48" s="43">
+        <v>43</v>
+      </c>
+      <c r="D48" s="44">
+        <f t="shared" si="0"/>
+        <v>1.8730799999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="45">
+        <v>231</v>
+      </c>
+      <c r="B49" s="43">
+        <v>76</v>
+      </c>
+      <c r="C49" s="43">
+        <v>38</v>
+      </c>
+      <c r="D49" s="44">
+        <f t="shared" si="0"/>
+        <v>0.66712800000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="45">
+        <v>439</v>
+      </c>
+      <c r="B50" s="43">
+        <v>226</v>
+      </c>
+      <c r="C50" s="43">
+        <v>104</v>
+      </c>
+      <c r="D50" s="44">
+        <f t="shared" si="0"/>
+        <v>10.318255999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="45">
+        <v>125</v>
+      </c>
+      <c r="B51" s="43">
+        <v>61</v>
+      </c>
+      <c r="C51" s="43">
+        <v>28</v>
+      </c>
+      <c r="D51" s="44">
+        <f t="shared" si="0"/>
+        <v>0.21349999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="45">
+        <v>150</v>
+      </c>
+      <c r="B52" s="43">
+        <v>122</v>
+      </c>
+      <c r="C52" s="43">
+        <v>102</v>
+      </c>
+      <c r="D52" s="44">
+        <f t="shared" si="0"/>
+        <v>1.8666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="45">
+        <v>56</v>
+      </c>
+      <c r="B53" s="43">
         <v>41</v>
       </c>
-      <c r="D29" s="41">
-        <f t="shared" si="0"/>
-        <v>0.12595199999999998</v>
-      </c>
-      <c r="G29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29">
-        <v>3.8834063589743599</v>
-      </c>
-      <c r="I29">
-        <v>4.4810985263157894</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="43">
+      <c r="C53" s="43">
+        <v>20</v>
+      </c>
+      <c r="D53" s="44">
+        <f t="shared" si="0"/>
+        <v>4.5919999999999996E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="45">
+        <v>419</v>
+      </c>
+      <c r="B54" s="43">
+        <v>119</v>
+      </c>
+      <c r="C54" s="43">
+        <v>43</v>
+      </c>
+      <c r="D54" s="44">
+        <f t="shared" si="0"/>
+        <v>2.1440230000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="45">
         <v>137</v>
       </c>
-      <c r="B30" s="40">
-        <v>132</v>
-      </c>
-      <c r="C30" s="40">
-        <v>28</v>
-      </c>
-      <c r="D30" s="41">
-        <f t="shared" si="0"/>
-        <v>0.50635200000000002</v>
-      </c>
-      <c r="G30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30">
-        <v>109.9097749254354</v>
-      </c>
-      <c r="I30">
-        <v>62.202029426995168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="43">
-        <v>683</v>
-      </c>
-      <c r="B31" s="40">
-        <v>533</v>
-      </c>
-      <c r="C31" s="40">
-        <v>170</v>
-      </c>
-      <c r="D31" s="41">
-        <f t="shared" si="0"/>
-        <v>61.886630000000004</v>
-      </c>
-      <c r="G31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31">
-        <v>39</v>
-      </c>
-      <c r="I31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="43">
-        <v>55</v>
-      </c>
-      <c r="B32" s="40">
-        <v>43</v>
-      </c>
-      <c r="C32" s="40">
-        <v>30</v>
-      </c>
-      <c r="D32" s="41">
-        <f t="shared" si="0"/>
-        <v>7.0950000000000013E-2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
-        <v>53</v>
-      </c>
-      <c r="B33" s="40">
-        <v>41</v>
-      </c>
-      <c r="C33" s="40">
-        <v>23</v>
-      </c>
-      <c r="D33" s="41">
-        <f t="shared" si="0"/>
-        <v>4.9978999999999996E-2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
-        <v>229</v>
-      </c>
-      <c r="B34" s="40">
-        <v>195</v>
-      </c>
-      <c r="C34" s="40">
-        <v>130</v>
-      </c>
-      <c r="D34" s="41">
-        <f t="shared" si="0"/>
-        <v>5.8051500000000011</v>
-      </c>
-      <c r="G34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34">
-        <v>-0.24215751991839837</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="44">
-        <v>282</v>
-      </c>
-      <c r="B35" s="45">
-        <v>196</v>
-      </c>
-      <c r="C35" s="45">
-        <v>185</v>
-      </c>
-      <c r="D35" s="46">
-        <f t="shared" si="0"/>
-        <v>10.225319999999998</v>
-      </c>
-      <c r="G35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35">
-        <v>0.40486725072084584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
-        <v>51</v>
-      </c>
-      <c r="B36" s="40">
-        <v>46</v>
-      </c>
-      <c r="C36" s="40">
-        <v>10</v>
-      </c>
-      <c r="D36" s="41">
-        <f t="shared" si="0"/>
-        <v>2.3460000000000002E-2</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="B55" s="43">
         <v>125</v>
       </c>
-      <c r="H36">
-        <v>1.678660413556865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="43">
-        <v>99</v>
-      </c>
-      <c r="B37" s="40">
-        <v>48</v>
-      </c>
-      <c r="C37" s="40">
-        <v>30</v>
-      </c>
-      <c r="D37" s="41">
-        <f t="shared" si="0"/>
-        <v>0.14255999999999999</v>
-      </c>
-      <c r="G37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37">
-        <v>0.80973450144169168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="43">
-        <v>76</v>
-      </c>
-      <c r="B38" s="40">
-        <v>46</v>
-      </c>
-      <c r="C38" s="40">
-        <v>28</v>
-      </c>
-      <c r="D38" s="41">
-        <f t="shared" si="0"/>
-        <v>9.7888000000000003E-2</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="18">
-        <v>2.0128955989194299</v>
-      </c>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
-        <v>117</v>
-      </c>
-      <c r="B39" s="40">
-        <v>64</v>
-      </c>
-      <c r="C39" s="40">
-        <v>36</v>
-      </c>
-      <c r="D39" s="41">
-        <f t="shared" si="0"/>
-        <v>0.26956799999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="43">
-        <v>191</v>
-      </c>
-      <c r="B40" s="40">
-        <v>173</v>
-      </c>
-      <c r="C40" s="40">
-        <v>132</v>
-      </c>
-      <c r="D40" s="41">
-        <f t="shared" si="0"/>
-        <v>4.3616760000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="48">
-        <v>234</v>
-      </c>
-      <c r="B41" s="49">
-        <v>221</v>
-      </c>
-      <c r="C41" s="49">
-        <v>84</v>
-      </c>
-      <c r="D41" s="50">
-        <f t="shared" si="0"/>
-        <v>4.3439760000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="48">
-        <v>274</v>
-      </c>
-      <c r="B42" s="49">
-        <v>155</v>
-      </c>
-      <c r="C42" s="49">
-        <v>81</v>
-      </c>
-      <c r="D42" s="50">
-        <f t="shared" si="0"/>
-        <v>3.4400700000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="48">
-        <v>429</v>
-      </c>
-      <c r="B43" s="49">
-        <v>428</v>
-      </c>
-      <c r="C43" s="49">
+      <c r="C55" s="43">
+        <v>18</v>
+      </c>
+      <c r="D55" s="44">
+        <f t="shared" si="0"/>
+        <v>0.30824999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="45">
+        <v>279</v>
+      </c>
+      <c r="B56" s="43">
+        <v>259</v>
+      </c>
+      <c r="C56" s="43">
+        <v>74</v>
+      </c>
+      <c r="D56" s="44">
+        <f t="shared" si="0"/>
+        <v>5.3473139999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="45">
+        <v>114</v>
+      </c>
+      <c r="B57" s="43">
+        <v>91</v>
+      </c>
+      <c r="C57" s="43">
+        <v>89</v>
+      </c>
+      <c r="D57" s="44">
+        <f t="shared" si="0"/>
+        <v>0.92328599999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="45">
         <v>168</v>
       </c>
-      <c r="D43" s="50">
-        <f t="shared" si="0"/>
-        <v>30.846816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="48">
-        <v>117</v>
-      </c>
-      <c r="B44" s="49">
-        <v>33</v>
-      </c>
-      <c r="C44" s="49">
-        <v>20</v>
-      </c>
-      <c r="D44" s="50">
-        <f t="shared" si="0"/>
-        <v>7.7219999999999997E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="48">
-        <v>99</v>
-      </c>
-      <c r="B45" s="49">
-        <v>69</v>
-      </c>
-      <c r="C45" s="49">
-        <v>36</v>
-      </c>
-      <c r="D45" s="50">
-        <f t="shared" si="0"/>
-        <v>0.245916</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="48">
-        <v>328</v>
-      </c>
-      <c r="B46" s="49">
-        <v>152</v>
-      </c>
-      <c r="C46" s="49">
-        <v>23</v>
-      </c>
-      <c r="D46" s="50">
-        <f t="shared" si="0"/>
-        <v>1.1466879999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="52">
-        <v>213</v>
-      </c>
-      <c r="B47" s="53">
-        <v>145</v>
-      </c>
-      <c r="C47" s="53">
-        <v>53</v>
-      </c>
-      <c r="D47" s="54">
-        <f t="shared" si="0"/>
-        <v>1.6369049999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="48">
-        <v>264</v>
-      </c>
-      <c r="B48" s="49">
-        <v>165</v>
-      </c>
-      <c r="C48" s="49">
-        <v>43</v>
-      </c>
-      <c r="D48" s="50">
-        <f t="shared" si="0"/>
-        <v>1.8730799999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="48">
-        <v>231</v>
-      </c>
-      <c r="B49" s="49">
-        <v>76</v>
-      </c>
-      <c r="C49" s="49">
-        <v>38</v>
-      </c>
-      <c r="D49" s="50">
-        <f t="shared" si="0"/>
-        <v>0.66712800000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="48">
-        <v>439</v>
-      </c>
-      <c r="B50" s="49">
-        <v>226</v>
-      </c>
-      <c r="C50" s="49">
-        <v>104</v>
-      </c>
-      <c r="D50" s="50">
-        <f t="shared" si="0"/>
-        <v>10.318255999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="48">
-        <v>125</v>
-      </c>
-      <c r="B51" s="49">
-        <v>61</v>
-      </c>
-      <c r="C51" s="49">
-        <v>28</v>
-      </c>
-      <c r="D51" s="50">
-        <f t="shared" si="0"/>
-        <v>0.21349999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="48">
-        <v>150</v>
-      </c>
-      <c r="B52" s="49">
-        <v>122</v>
-      </c>
-      <c r="C52" s="49">
-        <v>102</v>
-      </c>
-      <c r="D52" s="50">
-        <f t="shared" si="0"/>
-        <v>1.8666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="48">
-        <v>56</v>
-      </c>
-      <c r="B53" s="49">
-        <v>41</v>
-      </c>
-      <c r="C53" s="49">
-        <v>20</v>
-      </c>
-      <c r="D53" s="50">
-        <f t="shared" si="0"/>
-        <v>4.5919999999999996E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="48">
-        <v>419</v>
-      </c>
-      <c r="B54" s="49">
-        <v>119</v>
-      </c>
-      <c r="C54" s="49">
-        <v>43</v>
-      </c>
-      <c r="D54" s="50">
-        <f t="shared" si="0"/>
-        <v>2.1440230000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="48">
+      <c r="B58" s="43">
         <v>137</v>
       </c>
-      <c r="B55" s="49">
-        <v>125</v>
-      </c>
-      <c r="C55" s="49">
-        <v>18</v>
-      </c>
-      <c r="D55" s="50">
-        <f t="shared" si="0"/>
-        <v>0.30824999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="48">
-        <v>279</v>
-      </c>
-      <c r="B56" s="49">
-        <v>259</v>
-      </c>
-      <c r="C56" s="49">
-        <v>74</v>
-      </c>
-      <c r="D56" s="50">
-        <f t="shared" si="0"/>
-        <v>5.3473139999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="48">
-        <v>114</v>
-      </c>
-      <c r="B57" s="49">
-        <v>91</v>
-      </c>
-      <c r="C57" s="49">
-        <v>89</v>
-      </c>
-      <c r="D57" s="50">
-        <f t="shared" si="0"/>
-        <v>0.92328599999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="48">
-        <v>168</v>
-      </c>
-      <c r="B58" s="49">
-        <v>137</v>
-      </c>
-      <c r="C58" s="49">
+      <c r="C58" s="43">
         <v>24</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="44">
         <f t="shared" si="0"/>
         <v>0.55238399999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="48">
+      <c r="A59" s="45">
         <v>404</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="43">
         <v>351</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="43">
         <v>135</v>
       </c>
-      <c r="D59" s="50">
+      <c r="D59" s="44">
         <f t="shared" si="0"/>
         <v>19.143539999999998</v>
       </c>
